--- a/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD8AA49-FA0E-4632-8251-6518E1F08E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F99EF97-42FD-4468-854C-652CDE85FD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A9BA187-2F12-4F97-8E5A-3B0937E463B4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{227ADB7C-F79A-45D1-8174-1F4FB60FE471}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t>Población que, necesitando medicamentos, no los pudo comprar por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -113,7 +113,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>99,19%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -122,91 +122,85 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,66%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>99,79%</t>
+    <t>99,77%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -624,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94510913-E404-4DEB-8871-61EF51C0F89B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9E51A5-4188-4939-8EA7-26350221FB77}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -981,7 +975,7 @@
         <v>2123</v>
       </c>
       <c r="N8" s="7">
-        <v>1909856</v>
+        <v>1909855</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>34</v>
@@ -1032,7 +1026,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911465</v>
+        <v>1911464</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1094,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1112,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -1127,7 +1121,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1142,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -1213,13 +1207,13 @@
         <v>813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1228,13 +1222,13 @@
         <v>2156</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1246,10 +1240,10 @@
         <v>27</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1264,10 +1258,10 @@
         <v>1511637</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1279,13 +1273,13 @@
         <v>1676038</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>3816</v>
@@ -1297,10 +1291,10 @@
         <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,7 +1350,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F99EF97-42FD-4468-854C-652CDE85FD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1A8985-7195-4B0A-8E0A-8603FB1631DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{227ADB7C-F79A-45D1-8174-1F4FB60FE471}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D779588-399D-482C-923F-A62CF5BD4C52}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9E51A5-4188-4939-8EA7-26350221FB77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC953E3-F29E-4EBD-9A7A-5EB8A443C01E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1A8985-7195-4B0A-8E0A-8603FB1631DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3340D5D-37E2-44FE-A8AE-DC762D4F3536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D779588-399D-482C-923F-A62CF5BD4C52}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E99E5E08-AAC5-4E1E-8FB7-4D589CB92545}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>Población que, necesitando medicamentos, no los pudo comprar por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -113,7 +113,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,19%</t>
+    <t>99,18%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -122,52 +122,58 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,51%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,3%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -176,31 +182,31 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>0,23%</t>
+    <t>0,21%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,7%</t>
+    <t>99,73%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,66%</t>
+    <t>99,65%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>99,77%</t>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -618,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC953E3-F29E-4EBD-9A7A-5EB8A443C01E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142A34DC-4669-46C0-A96C-3DAF9CFE0B47}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -975,7 +981,7 @@
         <v>2123</v>
       </c>
       <c r="N8" s="7">
-        <v>1909855</v>
+        <v>1909856</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>34</v>
@@ -1026,7 +1032,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911464</v>
+        <v>1911465</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1088,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1106,7 +1112,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -1121,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1136,7 +1142,7 @@
         <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -1207,13 +1213,13 @@
         <v>813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1222,13 +1228,13 @@
         <v>2156</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1240,10 +1246,10 @@
         <v>27</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1258,10 +1264,10 @@
         <v>1511637</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1273,13 +1279,13 @@
         <v>1676038</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>3816</v>
@@ -1291,10 +1297,10 @@
         <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1350,7 +1356,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3340D5D-37E2-44FE-A8AE-DC762D4F3536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E54F97-4AA8-4646-AA86-EF14D0069FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E99E5E08-AAC5-4E1E-8FB7-4D589CB92545}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FB744239-A618-45FA-8E6D-7BC3AC9B7188}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -104,10 +104,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -119,94 +119,94 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142A34DC-4669-46C0-A96C-3DAF9CFE0B47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E640E7C-84EF-4606-A9C6-301AA5712C0C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1360</v>
+        <v>1246</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1360</v>
+        <v>1246</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -796,7 +796,7 @@
         <v>300</v>
       </c>
       <c r="D5" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -811,7 +811,7 @@
         <v>632</v>
       </c>
       <c r="I5" s="7">
-        <v>374067</v>
+        <v>336688</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -826,7 +826,7 @@
         <v>932</v>
       </c>
       <c r="N5" s="7">
-        <v>614058</v>
+        <v>567565</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -847,7 +847,7 @@
         <v>300</v>
       </c>
       <c r="D6" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -862,7 +862,7 @@
         <v>634</v>
       </c>
       <c r="I6" s="7">
-        <v>375427</v>
+        <v>337934</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -877,7 +877,7 @@
         <v>934</v>
       </c>
       <c r="N6" s="7">
-        <v>615418</v>
+        <v>568811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -930,10 +930,10 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1609</v>
+        <v>1531</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
@@ -951,7 +951,7 @@
         <v>833</v>
       </c>
       <c r="D8" s="7">
-        <v>947316</v>
+        <v>1116369</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -966,7 +966,7 @@
         <v>1290</v>
       </c>
       <c r="I8" s="7">
-        <v>962541</v>
+        <v>936546</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>34</v>
@@ -981,10 +981,10 @@
         <v>2123</v>
       </c>
       <c r="N8" s="7">
-        <v>1909856</v>
+        <v>2052915</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>36</v>
@@ -1002,7 +1002,7 @@
         <v>834</v>
       </c>
       <c r="D9" s="7">
-        <v>948129</v>
+        <v>1117133</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1017,7 +1017,7 @@
         <v>1291</v>
       </c>
       <c r="I9" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1032,7 +1032,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911465</v>
+        <v>2054446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1106,7 +1106,7 @@
         <v>318</v>
       </c>
       <c r="D11" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -1121,7 +1121,7 @@
         <v>443</v>
       </c>
       <c r="I11" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -1136,7 +1136,7 @@
         <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>19</v>
@@ -1157,7 +1157,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1172,7 +1172,7 @@
         <v>443</v>
       </c>
       <c r="I12" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1187,7 +1187,7 @@
         <v>761</v>
       </c>
       <c r="N12" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2156</v>
+        <v>2013</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
@@ -1234,16 +1234,16 @@
         <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2969</v>
+        <v>2778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>49</v>
@@ -1261,7 +1261,7 @@
         <v>1451</v>
       </c>
       <c r="D14" s="7">
-        <v>1511637</v>
+        <v>1657429</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>51</v>
@@ -1276,25 +1276,25 @@
         <v>2365</v>
       </c>
       <c r="I14" s="7">
-        <v>1676038</v>
+        <v>1585521</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>3816</v>
       </c>
       <c r="N14" s="7">
-        <v>3187674</v>
+        <v>3242949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>56</v>
@@ -1312,7 +1312,7 @@
         <v>1452</v>
       </c>
       <c r="D15" s="7">
-        <v>1512450</v>
+        <v>1658193</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1327,7 +1327,7 @@
         <v>2368</v>
       </c>
       <c r="I15" s="7">
-        <v>1678194</v>
+        <v>1587534</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1342,7 +1342,7 @@
         <v>3820</v>
       </c>
       <c r="N15" s="7">
-        <v>3190643</v>
+        <v>3245727</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
